--- a/Reporte_Empleados.xlsx
+++ b/Reporte_Empleados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -731,6 +731,62 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pedro</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Jos</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Armas</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Coyo</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1234455</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>jospspd</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>kaddkdakakd</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1987-12-01</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_Empleados.xlsx
+++ b/Reporte_Empleados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,6 +787,104 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mari</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Carolina</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Peroz</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Hans</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>12344ee</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>joakkkdjdd</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>afafafafaf</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1985-07-11</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>39</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Soltero</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>DWd</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>hdfhf</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>12-14-2000</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Admon</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Quincenal</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Activo</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Banesco</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>132242535353543535</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_Empleados.xlsx
+++ b/Reporte_Empleados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -885,6 +885,104 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">carlos </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>luis</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alvarado </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12435678</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>fefsfsfes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>fsfsfsf</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1999-11-11</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>25</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Casado</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Analista</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Comercialización</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>12-11-2023</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Principal</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Quincenal</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Activo</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Banplus</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>31231414141414</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_Empleados.xlsx
+++ b/Reporte_Empleados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,6 +983,54 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_Empleados.xlsx
+++ b/Reporte_Empleados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,6 +1031,98 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Campos</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>17342541</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>mari@hma,com</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>mama</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Soltero</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>COntador</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Finanzas</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>11-10-2013</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Quincenal</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Activo</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>BBVA</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0101.2222222</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reporte_Empleados.xlsx
+++ b/Reporte_Empleados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1123,6 +1123,34 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Bicentenario (banco digital de los trabajadores y trabajadoras)</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
